--- a/PM/Risikoanalyse.xlsx
+++ b/PM/Risikoanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I569653/dev/SurveySphere/PM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AFF1C9-445E-9546-B552-302791C5B7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3CF46E-678E-154B-8B99-529BA884C1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="3180" windowWidth="27640" windowHeight="16940" xr2:uid="{BD62F6F8-CF80-1B42-ADB1-64475497F49C}"/>
   </bookViews>
@@ -223,68 +223,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10.5"/>
-        <color rgb="FF374151"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10.5"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF6A63F6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10.5"/>
-        <color rgb="FF374151"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -344,6 +282,68 @@
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color rgb="FF374151"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color rgb="FF374151"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF6A63F6"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -363,15 +363,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB6002DD-D6AE-1248-BB10-72160A38493B}" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB6002DD-D6AE-1248-BB10-72160A38493B}" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F6" xr:uid="{FB6002DD-D6AE-1248-BB10-72160A38493B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{63535637-7DCC-294E-B6A1-3E265F520433}" name="Risiko" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{A8681B5F-27C3-1546-A3BC-BD4F99EBFF50}" name="Ursache" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{EC5C896F-890C-F74F-9459-AE3494DE9415}" name="Eintrittswahrscheinlichkeit (1-5)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E5AF9D07-E228-634B-B7DC-5D32D95CA915}" name="Mitigation / Gegenmaßnahme" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{358F5C47-3B06-6A44-9E09-EA2B3BEF8DFD}" name="Kosten der Maßnahme" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1BCF56DC-EC10-144F-B327-D4B367453226}" name="Stakeholder" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{63535637-7DCC-294E-B6A1-3E265F520433}" name="Risiko" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A8681B5F-27C3-1546-A3BC-BD4F99EBFF50}" name="Ursache" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{EC5C896F-890C-F74F-9459-AE3494DE9415}" name="Eintrittswahrscheinlichkeit (1-5)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E5AF9D07-E228-634B-B7DC-5D32D95CA915}" name="Mitigation / Gegenmaßnahme" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{358F5C47-3B06-6A44-9E09-EA2B3BEF8DFD}" name="Kosten der Maßnahme" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1BCF56DC-EC10-144F-B327-D4B367453226}" name="Stakeholder" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -677,7 +677,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B23" sqref="A22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
